--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/161TB_TG102E-4G _290224.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/161TB_TG102E-4G _290224.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\17.Lô 5-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\16_Lô 4-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545" activeTab="3"/>
+    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/161TB_TG102E-4G _290224.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/161TB_TG102E-4G _290224.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545"/>
+    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
-  <si>
-    <t>006080056249373</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>008080056259448</t>
   </si>
@@ -905,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -917,252 +914,252 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -1178,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,258 +1186,256 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,107 +1458,107 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1677,202 +1672,202 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
